--- a/WebAPI/wwwroot/Plantillas/ReplicasResultadosExcel.xlsx
+++ b/WebAPI/wwwroot/Plantillas/ReplicasResultadosExcel.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\FormatosReplicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\SICA_INFOTEC\WebAPI\wwwroot\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="4824"/>
   </bookViews>
   <sheets>
-    <sheet name="Sitios" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,10 +47,6 @@
     <t>ES CORRECTO EL RESULTADO POR REGLAS DE VALIDACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">No.
-ENTREGA </t>
-  </si>
-  <si>
     <t>CLAVE ÚNICA</t>
   </si>
   <si>
@@ -100,6 +96,9 @@
   </si>
   <si>
     <t>NOMBRE USUARIO QUE REVISÓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. CARGA </t>
   </si>
 </sst>
 </file>
@@ -531,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,10 +560,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -582,10 +581,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -594,46 +593,46 @@
         <v>6</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
